--- a/generated_docs/WR_89804587_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Jacob Henderson</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/27/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>837-1</t>
+          <t>#NO MATCH-1</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89804587_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7150.3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>2143.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>476.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>2143.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="H24" s="16" t="n">
-        <v>7150.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/generated_docs/WR_89804587_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89804587_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>7150.3</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P7</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>2143.8</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>476.4</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>2143.8</v>
       </c>
     </row>
     <row r="24">
@@ -1013,7 +1009,7 @@
         </is>
       </c>
       <c r="H24" s="16" t="n">
-        <v>0</v>
+        <v>7150.3</v>
       </c>
     </row>
   </sheetData>
